--- a/Budget/Budget.xlsx
+++ b/Budget/Budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s540109\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F500218-32F5-43FE-89B1-49976FAE9EAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7920D0-4F99-4D0A-9E2E-A63A2AE998DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C1C8B100-4B9A-4E25-ABC8-68688A9169CB}"/>
   </bookViews>
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DE102B-A849-4A82-9E71-DE1F9AA4299A}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -537,8 +537,8 @@
         <v>50</v>
       </c>
       <c r="D5" s="3">
-        <f>C5*B5</f>
-        <v>100</v>
+        <f>C5*B5*14</f>
+        <v>1400</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -552,8 +552,8 @@
         <v>60</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ref="D6:D8" si="0">C6*B6</f>
-        <v>600</v>
+        <f t="shared" ref="D6:D8" si="0">C6*B6*14</f>
+        <v>8400</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -568,7 +568,7 @@
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>1600</v>
+        <v>22400</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -583,7 +583,7 @@
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>975</v>
+        <v>13650</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -594,7 +594,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="4">
         <f>SUM(D5:D8)</f>
-        <v>3275</v>
+        <v>45850</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -698,7 +698,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="4">
         <f>SUM(D19,D10)</f>
-        <v>30700</v>
+        <v>73275</v>
       </c>
     </row>
   </sheetData>
